--- a/testes_planilhas/RELATÓRIO DE DESFAZIMENTO DE BENS MÓVEIS PATRIMONIAIS DE 2030.xlsx
+++ b/testes_planilhas/RELATÓRIO DE DESFAZIMENTO DE BENS MÓVEIS PATRIMONIAIS DE 2030.xlsx
@@ -17,13 +17,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +56,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,171 +442,197 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>RELATÓRIO DE DESFAZIMENTO DE BENS MÓVEIS PATRIMONIAIS DE 2030</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="40" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Nº DE ORDEM</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>TOMBO</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>DESCRIÇÃO DO BEM</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>DATA DA AQUISIÇÃO</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>DOCUMENTO FISCAL</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>UNIDADE RESPONSÁVEL</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>CLASSIFICAÇÃO</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>DESTINAÇÃO</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>100109</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Armário de aço com 2 portas e 4 prateleiras</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18/06/2018</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NF-e 10123</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Diretoria de Sistemas de Informação (DSI)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>100106</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>100106</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Impressora a Laser HP LaserJet Pro M130fw</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>22/05/2022</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>NF-e 47890</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Pró-Reitoria de Desenvolvimento e Gestão de Pessoas (PRODGEP)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Irrecuperável</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>Alienação/Leilão</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>100108</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Notebook Dell Vostro 15, Intel i7, 16GB RAM, 512GB SSD</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>NF-e 52001</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Coordenação do Curso de Engenharia Civil</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Irrecuperável</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>Alienação/Leilão</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>100108</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Notebook Dell Vostro 15, Intel i7, 16GB RAM, 512GB SSD</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28/02/2023</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NF-e 52001</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Coordenação do Curso de Engenharia Civil</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>100109</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Armário de aço com 2 portas e 4 prateleiras</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>18/06/2018</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>NF-e 10123</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Diretoria de Sistemas de Informação (DSI)</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>Irrecuperável</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>Alienação/Leilão</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>